--- a/PublicationExperimentResults/AnalysisResults.xlsx
+++ b/PublicationExperimentResults/AnalysisResults.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="-20" windowWidth="24800" windowHeight="15340" tabRatio="500" activeTab="7"/>
+    <workbookView xWindow="-1120" yWindow="80" windowWidth="24800" windowHeight="15380" tabRatio="500" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="60" sheetId="1" r:id="rId1"/>
@@ -80,10 +80,6 @@
   </si>
   <si>
     <t>UCT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Kth</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -184,15 +180,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Average Score</t>
+    <t>Kth-Quo / Quo</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Average Wins</t>
+    <t>Average Reward</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Kth-Quo / Quo</t>
+    <t>Winning Percentages</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KthBestPick</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -243,6 +243,12 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFDEE001"/>
+      <color rgb="FFCE0000"/>
+    </mruColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -588,11 +594,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="588537944"/>
-        <c:axId val="588545944"/>
+        <c:axId val="514140024"/>
+        <c:axId val="514147896"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="588537944"/>
+        <c:axId val="514140024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -617,14 +623,14 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="588545944"/>
+        <c:crossAx val="514147896"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="588545944"/>
+        <c:axId val="514147896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -641,7 +647,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Average Score of Final Picks</a:t>
+                  <a:t>Average Value Per Pick</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -650,7 +656,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="588537944"/>
+        <c:crossAx val="514140024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -706,10 +712,15 @@
           <c:spPr>
             <a:solidFill>
               <a:schemeClr val="tx1">
-                <a:lumMod val="65000"/>
-                <a:lumOff val="35000"/>
+                <a:lumMod val="85000"/>
+                <a:lumOff val="15000"/>
               </a:schemeClr>
             </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a:ln>
           </c:spPr>
           <c:errBars>
             <c:errBarType val="both"/>
@@ -840,11 +851,15 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="50000"/>
-                <a:lumOff val="50000"/>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="65000"/>
               </a:schemeClr>
             </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a:ln>
           </c:spPr>
           <c:errBars>
             <c:errBarType val="both"/>
@@ -975,10 +990,16 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="bg1">
-                <a:lumMod val="75000"/>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="65000"/>
+                <a:lumOff val="35000"/>
               </a:schemeClr>
             </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a:ln>
           </c:spPr>
           <c:errBars>
             <c:errBarType val="both"/>
@@ -1102,18 +1123,20 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Kth</c:v>
+                  <c:v>KthBestPick</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="bg1"/>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="85000"/>
+              </a:schemeClr>
             </a:solidFill>
             <a:ln w="3175" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
+                <a:srgbClr val="000000"/>
               </a:solidFill>
               <a:prstDash val="solid"/>
               <a:round/>
@@ -1234,11 +1257,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="588591544"/>
-        <c:axId val="588594744"/>
+        <c:axId val="514232648"/>
+        <c:axId val="514238632"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="588591544"/>
+        <c:axId val="514232648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1250,11 +1273,19 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr/>
+                  <a:defRPr sz="1400"/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Number of Items to Choose From</a:t>
+                  <a:rPr lang="en-US" sz="1400"/>
+                  <a:t>Number of Items to Choose From (</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400" i="1"/>
+                  <a:t>k</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400"/>
+                  <a:t>)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -1263,14 +1294,24 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="588594744"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="514238632"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="588594744"/>
+        <c:axId val="514238632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="80.0"/>
@@ -1285,11 +1326,11 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr/>
+                  <a:defRPr sz="1400"/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Average Score Per Picked Item</a:t>
+                  <a:rPr lang="en-US" sz="1400"/>
+                  <a:t>Average Value Per Pick</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -1298,7 +1339,17 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="588591544"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="514232648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1306,6 +1357,16 @@
     <c:legend>
       <c:legendPos val="t"/>
       <c:layout/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400"/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
@@ -1318,6 +1379,690 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="1"/>
+  <c:lang val="en-US"/>
+  <c:style val="1"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Graph!$I$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Random</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FF6600"/>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Graph!$J$3:$O$3</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="6"/>
+                  <c:pt idx="0">
+                    <c:v>2.329863480204305</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>1.307028644791056</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.975191354023196</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.760518936489479</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.716409478418267</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0.584709435677029</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Graph!$J$3:$O$3</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="6"/>
+                  <c:pt idx="0">
+                    <c:v>2.329863480204305</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>1.307028644791056</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.975191354023196</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.760518936489479</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.716409478418267</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0.584709435677029</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+          </c:errBars>
+          <c:cat>
+            <c:numRef>
+              <c:f>Graph!$J$1:$O$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Graph!$J$2:$O$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>47.96701388888888</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>48.67708333333334</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>47.44722222222222</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>48.36610243055555</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>47.97033333333333</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>48.81222222222222</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Graph!$I$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Greedy</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="000090"/>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Graph!$J$5:$O$5</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="6"/>
+                  <c:pt idx="0">
+                    <c:v>2.127214976641238</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.927757615687172</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.684113142402557</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.509326030591631</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.437053184371929</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0.345486829030713</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Graph!$J$5:$O$5</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="6"/>
+                  <c:pt idx="0">
+                    <c:v>2.127214976641238</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.927757615687172</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.684113142402557</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.509326030591631</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.437053184371929</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0.345486829030713</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+          </c:errBars>
+          <c:cat>
+            <c:numRef>
+              <c:f>Graph!$J$1:$O$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Graph!$J$4:$O$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>64.31597222222223</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>73.16840277777779</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>73.50868055555556</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>75.44748263888888</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>75.934</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>76.91455555555555</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Graph!$I$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>UCT</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FFFF00"/>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Graph!$J$7:$O$7</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="6"/>
+                  <c:pt idx="0">
+                    <c:v>2.11133939980383</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.977169928536384</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.715545011454554</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.513111887151352</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.459267863439188</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0.34528600076485</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Graph!$J$7:$O$7</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="6"/>
+                  <c:pt idx="0">
+                    <c:v>2.11133939980383</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.977169928536384</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.715545011454554</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.513111887151352</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.459267863439188</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0.34528600076485</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+          </c:errBars>
+          <c:cat>
+            <c:numRef>
+              <c:f>Graph!$J$1:$O$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Graph!$J$6:$O$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>64.62326388888888</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>74.41840277777778</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>74.66249999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>76.16362847222223</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>76.42383333333333</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>77.29188888888889</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Graph!$I$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>KthBestPick</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:ln w="3175" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+              <a:headEnd type="none" w="med" len="med"/>
+              <a:tailEnd type="none" w="med" len="med"/>
+            </a:ln>
+          </c:spPr>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Graph!$J$9:$O$9</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="6"/>
+                  <c:pt idx="0">
+                    <c:v>2.153359229066757</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>1.02702363286589</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.757197813545913</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.526525485077636</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.464811360824641</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0.366074498470592</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Graph!$J$9:$O$9</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="6"/>
+                  <c:pt idx="0">
+                    <c:v>2.153359229066757</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>1.02702363286589</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.757197813545913</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.526525485077636</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.464811360824641</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0.366074498470592</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+          </c:errBars>
+          <c:cat>
+            <c:numRef>
+              <c:f>Graph!$J$1:$O$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Graph!$J$8:$O$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>64.28472222222223</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>73.73379629629629</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>74.70590277777778</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>77.31423611111111</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>77.74333333333333</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>78.81366666666666</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="507884584"/>
+        <c:axId val="522563336"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="507884584"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400"/>
+                  <a:t>Number of Items to Choose From (</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400" i="1"/>
+                  <a:t>k</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400"/>
+                  <a:t>)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="522563336"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="522563336"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="80.0"/>
+          <c:min val="40.0"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400"/>
+                  <a:t>Average Value Per Pick</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="507884584"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400"/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="1"/>
   <c:lang val="en-US"/>
@@ -1407,11 +2152,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="490323112"/>
-        <c:axId val="471466984"/>
+        <c:axId val="514261176"/>
+        <c:axId val="514272616"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="490323112"/>
+        <c:axId val="514261176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1423,10 +2168,16 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr/>
+                  <a:defRPr sz="1600">
+                    <a:latin typeface="Calibri"/>
+                    <a:cs typeface="Calibri"/>
+                  </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
+                  <a:rPr lang="en-US" sz="1600">
+                    <a:latin typeface="Calibri"/>
+                    <a:cs typeface="Calibri"/>
+                  </a:rPr>
                   <a:t>Risk Bots</a:t>
                 </a:r>
               </a:p>
@@ -1436,18 +2187,28 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="471466984"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1500"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="514272616"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="471466984"/>
+        <c:axId val="514272616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="70.0"/>
-          <c:min val="-1.0"/>
+          <c:min val="0.0"/>
         </c:scaling>
         <c:axPos val="l"/>
         <c:majorGridlines/>
@@ -1458,10 +2219,10 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr/>
+                  <a:defRPr sz="1600"/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
+                  <a:rPr lang="en-US" sz="1600"/>
                   <a:t>Percent Won</a:t>
                 </a:r>
               </a:p>
@@ -1471,7 +2232,17 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="490323112"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1500"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="514261176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1486,7 +2257,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="1"/>
   <c:lang val="en-US"/>
@@ -1511,6 +2282,14 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="85000"/>
+                <a:lumOff val="15000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </c:spPr>
           <c:errBars>
             <c:errBarType val="both"/>
             <c:errValType val="cust"/>
@@ -1551,10 +2330,10 @@
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>Average Score</c:v>
+                  <c:v>Average Reward</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Average Wins</c:v>
+                  <c:v>Winning Percentages</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1629,10 +2408,10 @@
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>Average Score</c:v>
+                  <c:v>Average Reward</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Average Wins</c:v>
+                  <c:v>Winning Percentages</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1667,6 +2446,14 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="65000"/>
+                <a:lumOff val="35000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </c:spPr>
           <c:errBars>
             <c:errBarType val="both"/>
             <c:errValType val="cust"/>
@@ -1707,10 +2494,10 @@
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>Average Score</c:v>
+                  <c:v>Average Reward</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Average Wins</c:v>
+                  <c:v>Winning Percentages</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1731,43 +2518,35 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="471710296"/>
-        <c:axId val="496497064"/>
+        <c:axId val="514310184"/>
+        <c:axId val="514322072"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="471710296"/>
+        <c:axId val="514310184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Risk Bots</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="496497064"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1500"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="514322072"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="496497064"/>
+        <c:axId val="514322072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="70.0"/>
@@ -1782,11 +2561,11 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr/>
+                  <a:defRPr sz="1600"/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Score/Percent Won</a:t>
+                  <a:rPr lang="en-US" sz="1600"/>
+                  <a:t>Reward/Percent Won</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -1795,7 +2574,17 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="471710296"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1500"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="514310184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1803,6 +2592,16 @@
     <c:legend>
       <c:legendPos val="t"/>
       <c:layout/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600"/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
@@ -1814,7 +2613,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="1"/>
   <c:lang val="en-US"/>
@@ -1828,6 +2627,9 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:v>Kth-Quo vs EvilPixie vs Killbot</c:v>
+          </c:tx>
           <c:errBars>
             <c:errBarType val="both"/>
             <c:errValType val="cust"/>
@@ -1907,6 +2709,9 @@
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
+          <c:tx>
+            <c:v>Quo vs EvilPixie vs KillBot</c:v>
+          </c:tx>
           <c:errBars>
             <c:errBarType val="both"/>
             <c:errValType val="cust"/>
@@ -1983,11 +2788,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="497050696"/>
-        <c:axId val="498055512"/>
+        <c:axId val="514351160"/>
+        <c:axId val="514362568"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="497050696"/>
+        <c:axId val="514351160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1999,10 +2804,10 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr/>
+                  <a:defRPr sz="1600"/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
+                  <a:rPr lang="en-US" sz="1600"/>
                   <a:t>Risk Bots</a:t>
                 </a:r>
               </a:p>
@@ -2012,14 +2817,24 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="498055512"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1500"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="514362568"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="498055512"/>
+        <c:axId val="514362568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="70.0"/>
@@ -2034,10 +2849,10 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr/>
+                  <a:defRPr sz="1600"/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
+                  <a:rPr lang="en-US" sz="1600"/>
                   <a:t>Percent Won</a:t>
                 </a:r>
               </a:p>
@@ -2047,11 +2862,893 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="497050696"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1500"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="514351160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600"/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="1"/>
+  <c:lang val="en-US"/>
+  <c:style val="1"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="000090"/>
+            </a:solidFill>
+          </c:spPr>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>'Other Graphs'!$F$14:$F$16</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="3"/>
+                  <c:pt idx="0">
+                    <c:v>6.138334943632267</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>5.1001068372932</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>4.5146640478358</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>'Other Graphs'!$F$14:$F$16</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="3"/>
+                  <c:pt idx="0">
+                    <c:v>6.138334943632267</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>5.1001068372932</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>4.5146640478358</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Other Graphs'!$D$14:$D$16</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Kth-Quo</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>EvilPixie</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Quo</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Other Graphs'!$E$14:$E$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>53.267973856209</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>21.24183006535933</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25.49019607843133</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="507880776"/>
+        <c:axId val="508299448"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="507880776"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1600">
+                    <a:latin typeface="Calibri"/>
+                    <a:cs typeface="Calibri"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1600">
+                    <a:latin typeface="Calibri"/>
+                    <a:cs typeface="Calibri"/>
+                  </a:rPr>
+                  <a:t>Risk Bots</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1500"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="508299448"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="508299448"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="70.0"/>
+          <c:min val="0.0"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1600"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1600"/>
+                  <a:t>Percent Won</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1500"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="507880776"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="1"/>
+  <c:lang val="en-US"/>
+  <c:style val="1"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Other Graphs'!$A$32</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Kth-Quo</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="000090"/>
+            </a:solidFill>
+          </c:spPr>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>'Other Graphs'!$C$38:$D$38</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="2"/>
+                  <c:pt idx="0">
+                    <c:v>0.324546734939265</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>5.731874555496233</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>'Other Graphs'!$C$38:$D$38</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="2"/>
+                  <c:pt idx="0">
+                    <c:v>0.324546734939265</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>5.731874555496233</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Other Graphs'!$B$31:$C$31</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Average Reward</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Winning Percentages</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Other Graphs'!$B$32:$C$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>40.07767705597833</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>31.69934640522867</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Other Graphs'!$A$33</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Random-Quo</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FFFF00"/>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>'Other Graphs'!$C$39:$D$39</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="2"/>
+                  <c:pt idx="0">
+                    <c:v>0.392295093042232</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>4.883120570325483</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>'Other Graphs'!$C$39:$D$39</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="2"/>
+                  <c:pt idx="0">
+                    <c:v>0.392295093042232</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>4.883120570325483</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Other Graphs'!$B$31:$C$31</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Average Reward</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Winning Percentages</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Other Graphs'!$B$33:$C$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>16.869212042722</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>21.89542483660117</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Other Graphs'!$A$34</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>UCT-Quo</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </c:spPr>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>'Other Graphs'!$C$40:$D$40</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="2"/>
+                  <c:pt idx="0">
+                    <c:v>0.370250374820323</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>6.020915032679733</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>'Other Graphs'!$C$40:$D$40</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="2"/>
+                  <c:pt idx="0">
+                    <c:v>0.370250374820323</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>6.020915032679733</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Other Graphs'!$B$31:$C$31</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Average Reward</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Winning Percentages</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Other Graphs'!$B$34:$C$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>43.0531109012995</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>46.40522875816983</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="549749464"/>
+        <c:axId val="549952536"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="549749464"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1500"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="549952536"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="549952536"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="70.0"/>
+          <c:min val="0.0"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1600"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1600"/>
+                  <a:t>Reward/Percent Won</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1500"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="549749464"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600"/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="1"/>
+  <c:lang val="en-US"/>
+  <c:style val="1"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Kth-Quo vs EvilPixie vs Killbot</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </c:spPr>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>'Other Graphs'!$E$51:$E$53</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="3"/>
+                  <c:pt idx="0">
+                    <c:v>5.682993869950967</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>4.454282843842983</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>5.025554076082184</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>'Other Graphs'!$E$51:$E$53</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="3"/>
+                  <c:pt idx="0">
+                    <c:v>5.682993869950967</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>4.454282843842983</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>5.025554076082184</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Other Graphs'!$A$51:$A$53</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Kth-Quo / Quo</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>EvilPixie</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Killbot</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Other Graphs'!$B$51:$B$53</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>46.078431372549</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13.72549019607842</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40.1960784313725</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Quo vs EvilPixie vs KillBot</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="000090"/>
+            </a:solidFill>
+          </c:spPr>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>'Other Graphs'!$F$51:$F$53</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="3"/>
+                  <c:pt idx="0">
+                    <c:v>3.688433058277166</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>3.767668587308667</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>1.834178384576567</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>'Other Graphs'!$F$51:$F$53</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="3"/>
+                  <c:pt idx="0">
+                    <c:v>3.688433058277166</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>3.767668587308667</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>1.834178384576567</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Other Graphs'!$A$51:$A$53</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Kth-Quo / Quo</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>EvilPixie</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Killbot</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Other Graphs'!$C$51:$C$53</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>31.69934640522867</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32.6797385620915</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>35.62091503267966</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="508146616"/>
+        <c:axId val="507891064"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="508146616"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1600"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1600"/>
+                  <a:t>Risk Bots</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1500"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="507891064"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="507891064"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="70.0"/>
+          <c:min val="0.0"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1600"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1600"/>
+                  <a:t>Percent Won</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1500"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="508146616"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600"/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
@@ -2119,6 +3816,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>698500</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2192,14 +3919,14 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>711200</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:colOff>660400</xdr:colOff>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>76</xdr:row>
+      <xdr:colOff>406400</xdr:colOff>
+      <xdr:row>75</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2214,6 +3941,96 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>838200</xdr:colOff>
+      <xdr:row>122</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>279400</xdr:colOff>
+      <xdr:row>122</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>147</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>115</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>203200</xdr:colOff>
+      <xdr:row>140</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2576,16 +4393,16 @@
         <v>3</v>
       </c>
       <c r="L1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M1" t="s">
         <v>21</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>22</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>23</v>
-      </c>
-      <c r="O1" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:15">
@@ -2949,7 +4766,7 @@
         <v>671</v>
       </c>
       <c r="F10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G10" s="2">
         <f>STDEV(L2:L601)</f>
@@ -2998,7 +4815,7 @@
         <v>741</v>
       </c>
       <c r="F11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G11" s="2">
         <f>AVERAGE(L2:L601)</f>
@@ -3047,7 +4864,7 @@
         <v>611</v>
       </c>
       <c r="F12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G12" s="2">
         <f>CONFIDENCE(0.05,G10,600)</f>
@@ -3096,7 +4913,7 @@
         <v>706</v>
       </c>
       <c r="F13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G13" s="2">
         <f>G11+G12</f>
@@ -3145,7 +4962,7 @@
         <v>643</v>
       </c>
       <c r="F14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G14" s="2">
         <f>G11-G12</f>
@@ -63526,8 +65343,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <dimension ref="A1:O9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I40" sqref="I40"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="J45" sqref="J45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -63678,7 +65495,7 @@
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B4">
         <f>'4'!G3</f>
@@ -63705,7 +65522,7 @@
         <v>1153.7183333333332</v>
       </c>
       <c r="I4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J4">
         <f t="shared" si="0"/>
@@ -63811,7 +65628,7 @@
         <v>1159.3783333333333</v>
       </c>
       <c r="I6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J6">
         <f t="shared" si="0"/>
@@ -63890,7 +65707,7 @@
     </row>
     <row r="8" spans="1:15">
       <c r="A8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B8">
         <f>'4'!I3</f>
@@ -63917,7 +65734,7 @@
         <v>1182.2049999999999</v>
       </c>
       <c r="I8" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="J8">
         <f t="shared" si="0"/>
@@ -63998,7 +65815,6 @@
   <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
@@ -64012,25 +65828,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <dimension ref="A1:F58"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="A52" sqref="A52"/>
+    <sheetView view="pageLayout" topLeftCell="A101" workbookViewId="0">
+      <selection activeCell="F144" sqref="F144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B3">
         <v>2.7647058823529398</v>
@@ -64039,20 +65855,20 @@
         <v>0.34097963219705801</v>
       </c>
       <c r="D3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E2:E13" si="0">(B3/6) *100</f>
+        <f t="shared" ref="E3:E10" si="0">(B3/6) *100</f>
         <v>46.078431372548998</v>
       </c>
       <c r="F3">
-        <f t="shared" ref="F2:F13" si="1">(C3/6)*100</f>
+        <f t="shared" ref="F3:F10" si="1">(C3/6)*100</f>
         <v>5.682993869950967</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B4">
         <v>0.82352941176470495</v>
@@ -64061,7 +65877,7 @@
         <v>0.26725697063057902</v>
       </c>
       <c r="D4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E4">
         <f t="shared" si="0"/>
@@ -64074,7 +65890,7 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B5">
         <v>2.4117647058823501</v>
@@ -64083,7 +65899,7 @@
         <v>0.30153324456493102</v>
       </c>
       <c r="D5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E5">
         <f t="shared" si="0"/>
@@ -64096,12 +65912,12 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B8">
         <v>1.9019607843137201</v>
@@ -64110,7 +65926,7 @@
         <v>0.22130598349663</v>
       </c>
       <c r="D8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E8">
         <f t="shared" si="0"/>
@@ -64123,7 +65939,7 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B9">
         <v>1.9607843137254899</v>
@@ -64132,7 +65948,7 @@
         <v>0.22606011523851999</v>
       </c>
       <c r="D9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E9">
         <f t="shared" si="0"/>
@@ -64145,7 +65961,7 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B10">
         <v>2.1372549019607798</v>
@@ -64154,7 +65970,7 @@
         <v>0.110050703074594</v>
       </c>
       <c r="D10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E10">
         <f t="shared" si="0"/>
@@ -64167,17 +65983,17 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B14">
         <v>3.1960784313725399</v>
@@ -64186,7 +66002,7 @@
         <v>0.368300096617936</v>
       </c>
       <c r="D14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E14">
         <f>(B14/6) *100</f>
@@ -64199,7 +66015,7 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B15">
         <v>1.2745098039215601</v>
@@ -64208,20 +66024,20 @@
         <v>0.30600641023759201</v>
       </c>
       <c r="D15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E15">
-        <f t="shared" ref="E15:E17" si="2">(B15/6) *100</f>
+        <f t="shared" ref="E15:E16" si="2">(B15/6) *100</f>
         <v>21.241830065359334</v>
       </c>
       <c r="F15">
-        <f t="shared" ref="F15:F17" si="3">(C15/6)*100</f>
+        <f t="shared" ref="F15:F16" si="3">(C15/6)*100</f>
         <v>5.1001068372932004</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B16">
         <v>1.52941176470588</v>
@@ -64230,7 +66046,7 @@
         <v>0.27087984287014799</v>
       </c>
       <c r="D16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E16">
         <f t="shared" si="2"/>
@@ -64243,17 +66059,17 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B21">
         <v>2.4046606233587</v>
@@ -64262,20 +66078,20 @@
         <v>1.9472804096355899E-2</v>
       </c>
       <c r="D21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E21">
-        <f t="shared" ref="E18:E29" si="4">(B21/6) *100</f>
+        <f t="shared" ref="E21:E29" si="4">(B21/6) *100</f>
         <v>40.077677055978334</v>
       </c>
       <c r="F21">
-        <f t="shared" ref="F18:F29" si="5">(C21/6)*100</f>
+        <f t="shared" ref="F21:F29" si="5">(C21/6)*100</f>
         <v>0.324546734939265</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B22">
         <v>1.01215272256332</v>
@@ -64284,7 +66100,7 @@
         <v>2.3537705582533899E-2</v>
       </c>
       <c r="D22" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E22">
         <f t="shared" si="4"/>
@@ -64297,7 +66113,7 @@
     </row>
     <row r="23" spans="1:6">
       <c r="A23" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B23">
         <v>2.58318665407797</v>
@@ -64306,7 +66122,7 @@
         <v>2.2215022489219399E-2</v>
       </c>
       <c r="D23" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E23">
         <f t="shared" si="4"/>
@@ -64319,12 +66135,12 @@
     </row>
     <row r="26" spans="1:6">
       <c r="A26" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B27">
         <v>1.9019607843137201</v>
@@ -64333,7 +66149,7 @@
         <v>0.34391247332977398</v>
       </c>
       <c r="D27" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E27">
         <f t="shared" si="4"/>
@@ -64346,7 +66162,7 @@
     </row>
     <row r="28" spans="1:6">
       <c r="A28" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B28">
         <v>1.31372549019607</v>
@@ -64355,7 +66171,7 @@
         <v>0.29298723421952899</v>
       </c>
       <c r="D28" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E28">
         <f t="shared" si="4"/>
@@ -64368,7 +66184,7 @@
     </row>
     <row r="29" spans="1:6">
       <c r="A29" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B29">
         <v>2.7843137254901902</v>
@@ -64377,7 +66193,7 @@
         <v>0.36125490196078403</v>
       </c>
       <c r="D29" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E29">
         <f t="shared" si="4"/>
@@ -64398,7 +66214,7 @@
     </row>
     <row r="32" spans="1:6">
       <c r="A32" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B32">
         <v>40.077677055978334</v>
@@ -64412,7 +66228,7 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B33">
         <v>16.869212042722001</v>
@@ -64426,7 +66242,7 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B34">
         <v>43.053110901299505</v>
@@ -64464,7 +66280,7 @@
     </row>
     <row r="51" spans="1:6">
       <c r="A51" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B51">
         <v>46.078431372548998</v>
@@ -64481,7 +66297,7 @@
     </row>
     <row r="52" spans="1:6">
       <c r="A52" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B52">
         <v>13.725490196078416</v>
@@ -64498,7 +66314,7 @@
     </row>
     <row r="53" spans="1:6">
       <c r="A53" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B53">
         <v>40.196078431372499</v>
@@ -64515,17 +66331,17 @@
     </row>
     <row r="56" spans="1:6">
       <c r="A56" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
